--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints4.000000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints4.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>6.099840454749075e-08</v>
+        <v>6.126335619681225e-08</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>6.087782772290382e-08</v>
+        <v>6.115965593782709e-08</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>6.067677264982496e-08</v>
+        <v>6.096021496688912e-08</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>6.040178885477029e-08</v>
+        <v>6.067332588744706e-08</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>6.005942586425514e-08</v>
+        <v>6.030728130294884e-08</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>5.96562332047951e-08</v>
+        <v>5.987037381684257e-08</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>5.919876040290508e-08</v>
+        <v>5.937089603257578e-08</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>5.86935569851019e-08</v>
+        <v>5.881714055359793e-08</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>5.814717247790051e-08</v>
+        <v>5.821739998335652e-08</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>5.756615640781573e-08</v>
+        <v>5.757996692529887e-08</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>5.695705830136466e-08</v>
+        <v>5.691313398287481e-08</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>5.63264276850621e-08</v>
+        <v>5.622519375953168e-08</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>5.56808140854228e-08</v>
+        <v>5.55244388587167e-08</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>5.502676702896401e-08</v>
+        <v>5.48191618838799e-08</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>5.437083604220045e-08</v>
+        <v>5.411765543846848e-08</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>5.371957065164771e-08</v>
+        <v>5.342821212593061e-08</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>5.307952038382053e-08</v>
+        <v>5.275912454971361e-08</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>5.245723476523615e-08</v>
+        <v>5.211868531326735e-08</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>5.18591151194854e-08</v>
+        <v>5.151494949519354e-08</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>5.128858244798646e-08</v>
+        <v>5.095119561135567e-08</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>5.074629759976256e-08</v>
+        <v>5.042627848100967e-08</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>5.023281733618454e-08</v>
+        <v>4.993888610211855e-08</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>4.974869841862393e-08</v>
+        <v>4.948770647264602e-08</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>4.929449760845175e-08</v>
+        <v>4.907142759055535e-08</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>4.887077166704073e-08</v>
+        <v>4.868873745381133e-08</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>4.847807735576183e-08</v>
+        <v>4.833832406037719e-08</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>4.811697143598616e-08</v>
+        <v>4.801887540821624e-08</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>4.778801066908623e-08</v>
+        <v>4.772907949529308e-08</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>4.74917518164331e-08</v>
+        <v>4.746762431957102e-08</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>4.722875163939836e-08</v>
+        <v>4.723319787901381e-08</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>4.699956689935326e-08</v>
+        <v>4.702448817158492e-08</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>4.680475435766999e-08</v>
+        <v>4.684018319524866e-08</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>4.664487077571976e-08</v>
+        <v>4.667897094796848e-08</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>4.652047291487405e-08</v>
+        <v>4.653953942770798e-08</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>4.643125519045996e-08</v>
+        <v>4.642015041457906e-08</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>4.637114056042202e-08</v>
+        <v>4.631621312366502e-08</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>4.633168325252509e-08</v>
+        <v>4.622196601603952e-08</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>4.63044302724375e-08</v>
+        <v>4.61316439832275e-08</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>4.628092862582743e-08</v>
+        <v>4.603948191675352e-08</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>4.625272531836306e-08</v>
+        <v>4.593971470814228e-08</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>4.621136735571257e-08</v>
+        <v>4.582657724891831e-08</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>4.614840174354429e-08</v>
+        <v>4.569430443060661e-08</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>4.605537548752638e-08</v>
+        <v>4.553713114473171e-08</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>4.592383559332688e-08</v>
+        <v>4.534929228281809e-08</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>4.574532906661434e-08</v>
+        <v>4.512502273639087e-08</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>4.551140291305683e-08</v>
+        <v>4.485855739697456e-08</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>4.52136041383226e-08</v>
+        <v>4.454413115609384e-08</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>4.484347974807931e-08</v>
+        <v>4.417597890527288e-08</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>4.439257674799614e-08</v>
+        <v>4.374833553603736e-08</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>4.385318741314026e-08</v>
+        <v>4.325589267516674e-08</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>4.322718518866906e-08</v>
+        <v>4.269921372972613e-08</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>4.252309041100435e-08</v>
+        <v>4.208293562647874e-08</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>4.174955712247471e-08</v>
+        <v>4.141177723329661e-08</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>4.091523936540832e-08</v>
+        <v>4.069045741805148e-08</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>4.002879118213672e-08</v>
+        <v>3.992369504861799e-08</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>3.909886661498822e-08</v>
+        <v>3.911620899286795e-08</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>3.813411970629211e-08</v>
+        <v>3.827271811867407e-08</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>3.714320449837643e-08</v>
+        <v>3.739794129390793e-08</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>3.613477503357314e-08</v>
+        <v>3.649659738644455e-08</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>3.511748535421027e-08</v>
+        <v>3.557340526415553e-08</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>3.409998950261584e-08</v>
+        <v>3.463308379491234e-08</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>3.309078400454893e-08</v>
+        <v>3.368030209165184e-08</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>3.209449149906918e-08</v>
+        <v>3.271850561832688e-08</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>3.111171593667297e-08</v>
+        <v>3.174987045118095e-08</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>3.014287477868221e-08</v>
+        <v>3.077651375990972e-08</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>2.918838548642252e-08</v>
+        <v>2.980055271421269e-08</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>2.824866552121575e-08</v>
+        <v>2.882410448378555e-08</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>2.73241323443838e-08</v>
+        <v>2.784928623832398e-08</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>2.641520341725223e-08</v>
+        <v>2.687821514752749e-08</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>2.552229620114292e-08</v>
+        <v>2.591300838109176e-08</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>2.464582815737785e-08</v>
+        <v>2.495578310871249e-08</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>2.378621674728245e-08</v>
+        <v>2.400865650008915e-08</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>2.294387943217867e-08</v>
+        <v>2.307374572491745e-08</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>2.211923367338962e-08</v>
+        <v>2.215316795289432e-08</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>2.131269693223735e-08</v>
+        <v>2.124904035371556e-08</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>2.052468667004714e-08</v>
+        <v>2.036348009708048e-08</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>1.9755620348141e-08</v>
+        <v>1.949860435268486e-08</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>1.900591542784109e-08</v>
+        <v>1.865653029022456e-08</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>1.82759893704725e-08</v>
+        <v>1.783937507939875e-08</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>1.756625963735733e-08</v>
+        <v>1.704925588990324e-08</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>1.687714368981871e-08</v>
+        <v>1.628828989143503e-08</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>1.620905898917889e-08</v>
+        <v>1.55585942536901e-08</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>1.556242299676275e-08</v>
+        <v>1.486228614636734e-08</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.49376531738925e-08</v>
+        <v>1.420148273916273e-08</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.433516698189049e-08</v>
+        <v>1.357830120177243e-08</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>1.375538188208141e-08</v>
+        <v>1.299485870389503e-08</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>1.319871533578759e-08</v>
+        <v>1.245327241522664e-08</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>1.266616133451346e-08</v>
+        <v>1.195550069061942e-08</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>1.216171075594466e-08</v>
+        <v>1.1502676342691e-08</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>1.169032519746619e-08</v>
+        <v>1.109566478314565e-08</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>1.125696675448947e-08</v>
+        <v>1.073533128649558e-08</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>1.086659752242615e-08</v>
+        <v>1.042254112725324e-08</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>1.052417959668937e-08</v>
+        <v>1.01581595799323e-08</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>1.023467507269071e-08</v>
+        <v>9.943051919045152e-09</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>1.000304604584202e-08</v>
+        <v>9.778083419104453e-09</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>9.834254611556027e-09</v>
+        <v>9.66411935462347e-09</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>9.733262865244509e-09</v>
+        <v>9.602025000114798e-09</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>9.705032902319575e-09</v>
+        <v>9.592665630091267e-09</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>9.754526818193469e-09</v>
+        <v>9.636906519065812e-09</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>9.886706708278177e-09</v>
+        <v>9.735612941551158e-09</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>4.069400172850958e-08</v>
+        <v>4.030506729211692e-08</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>5.456653450278055e-08</v>
+        <v>5.445880248522813e-08</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>5.243058968452834e-08</v>
+        <v>5.183722462480069e-08</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>5.19173129920478e-08</v>
+        <v>5.168687158384377e-08</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>5.186775363718106e-08</v>
+        <v>5.21599521791063e-08</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>5.157454236747846e-08</v>
+        <v>5.191368400103079e-08</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>5.583898338259337e-08</v>
+        <v>5.576569689066221e-08</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>7.314237514660804e-08</v>
+        <v>7.264912207628451e-08</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>1.002052300518846e-07</v>
+        <v>9.980472276763499e-08</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>1.112210869069011e-07</v>
+        <v>1.116197498008079e-07</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>1.1624320547879e-07</v>
+        <v>1.171091076541713e-07</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>1.208245591720542e-07</v>
+        <v>1.211656364714699e-07</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>1.183607601444015e-07</v>
+        <v>1.173647305760334e-07</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>1.109189332352685e-07</v>
+        <v>1.09773581201566e-07</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>1.052241801385365e-07</v>
+        <v>1.071176958140304e-07</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>1.027179712791925e-07</v>
+        <v>1.066786958282668e-07</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>1.028920598011286e-07</v>
+        <v>1.047858116447469e-07</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>1.05117497953953e-07</v>
+        <v>1.062134692976465e-07</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>1.030248795215341e-07</v>
+        <v>1.033321538882323e-07</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>9.857499282287162e-08</v>
+        <v>9.785020810191886e-08</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>9.551726311058324e-08</v>
+        <v>9.538522231559316e-08</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>9.182547327330497e-08</v>
+        <v>9.194783276942779e-08</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>8.812350675030375e-08</v>
+        <v>8.833018686397094e-08</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>8.517277591793983e-08</v>
+        <v>8.568651645098525e-08</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>8.272888792013128e-08</v>
+        <v>8.35743785558682e-08</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>8.043848835818475e-08</v>
+        <v>8.137835819461132e-08</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>7.795482019252856e-08</v>
+        <v>7.852877878496271e-08</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>7.499844085446127e-08</v>
+        <v>7.492264385962628e-08</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>7.132926126488215e-08</v>
+        <v>7.072978819860737e-08</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>6.671652760207022e-08</v>
+        <v>6.612302706989478e-08</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>6.127311889623881e-08</v>
+        <v>6.125765666050222e-08</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>5.555828496555267e-08</v>
+        <v>5.626621629372511e-08</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>5.01611052831726e-08</v>
+        <v>5.12797245181834e-08</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>4.560626079530052e-08</v>
+        <v>4.646315016444872e-08</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>4.199373177303025e-08</v>
+        <v>4.220536016062087e-08</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>3.925117265882425e-08</v>
+        <v>3.898393792671554e-08</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>3.725604455371715e-08</v>
+        <v>3.697829591273694e-08</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>3.578322814178381e-08</v>
+        <v>3.575196744785933e-08</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>3.46003256772255e-08</v>
+        <v>3.480546384383049e-08</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>3.358169221738139e-08</v>
+        <v>3.38980235785852e-08</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>3.269958815727553e-08</v>
+        <v>3.302616949009134e-08</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>3.192989742837865e-08</v>
+        <v>3.219520645565268e-08</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>3.124850396216247e-08</v>
+        <v>3.141043935257406e-08</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>3.063129169009769e-08</v>
+        <v>3.067717305815922e-08</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>3.005503758976794e-08</v>
+        <v>3.000029715299444e-08</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>2.950878700818644e-08</v>
+        <v>2.937899600996684e-08</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>2.899049938770245e-08</v>
+        <v>2.880830864543372e-08</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>2.849833483578045e-08</v>
+        <v>2.82831807596698e-08</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>2.803045345988497e-08</v>
+        <v>2.779855805294988e-08</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>2.758501536748117e-08</v>
+        <v>2.734938622554939e-08</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>2.716018066603355e-08</v>
+        <v>2.693061097774313e-08</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>2.675410946300686e-08</v>
+        <v>2.653717800980611e-08</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>2.636496186586565e-08</v>
+        <v>2.616403302201314e-08</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>2.599112025645841e-08</v>
+        <v>2.580676817043714e-08</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>2.563206816403247e-08</v>
+        <v>2.546417815347396e-08</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>2.52876294835493e-08</v>
+        <v>2.513604757841409e-08</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>2.495762820961497e-08</v>
+        <v>2.482216134235045e-08</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>2.464188833683514e-08</v>
+        <v>2.452230434237548e-08</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>2.434023385981559e-08</v>
+        <v>2.42362614755818e-08</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>2.405248877316199e-08</v>
+        <v>2.396381763906189e-08</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>2.377847707148038e-08</v>
+        <v>2.370475772990862e-08</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>2.351802274937643e-08</v>
+        <v>2.345886664521447e-08</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>2.327094980145583e-08</v>
+        <v>2.322592928207194e-08</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>2.303708222232457e-08</v>
+        <v>2.300573053757386e-08</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>2.281624400658834e-08</v>
+        <v>2.279805530881274e-08</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>2.260825914885294e-08</v>
+        <v>2.260268849288117e-08</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>2.241295164372406e-08</v>
+        <v>2.241941498687169e-08</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>2.223014548580767e-08</v>
+        <v>2.224801968787708e-08</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>2.205966466970948e-08</v>
+        <v>2.208828749298986e-08</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>2.19013331900352e-08</v>
+        <v>2.194000329930258e-08</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>2.175497504139078e-08</v>
+        <v>2.180295200390799e-08</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>2.162041421838192e-08</v>
+        <v>2.167691850389861e-08</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>2.149747471561442e-08</v>
+        <v>2.156168769636707e-08</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>2.138598052769401e-08</v>
+        <v>2.145704447840592e-08</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>2.12857556492266e-08</v>
+        <v>2.136277374710788e-08</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>2.119662407481793e-08</v>
+        <v>2.127866039956552e-08</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>2.111840979907375e-08</v>
+        <v>2.120448933287139e-08</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>2.105093681659991e-08</v>
+        <v>2.114004544411818e-08</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>2.099402912200218e-08</v>
+        <v>2.108511363039847e-08</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>2.094751070988634e-08</v>
+        <v>2.103947878880486e-08</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>2.091120557485818e-08</v>
+        <v>2.100292581642996e-08</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>2.088493771152351e-08</v>
+        <v>2.097523961036641e-08</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>2.086853111448812e-08</v>
+        <v>2.095620506770679e-08</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>2.086180977835779e-08</v>
+        <v>2.094560708554372e-08</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>2.08645976977383e-08</v>
+        <v>2.094323056096981e-08</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>2.087671886723546e-08</v>
+        <v>2.094886039107767e-08</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>2.089799728145505e-08</v>
+        <v>2.096228147295992e-08</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>2.092825689087157e-08</v>
+        <v>2.09832786734571e-08</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>2.096716396314374e-08</v>
+        <v>2.101152876767498e-08</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>2.10138729219755e-08</v>
+        <v>2.104635766115403e-08</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>2.106743451749994e-08</v>
+        <v>2.10870201910937e-08</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>2.112689949985008e-08</v>
+        <v>2.113277119469337e-08</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>2.1191318619159e-08</v>
+        <v>2.118286550915248e-08</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>2.125974262555976e-08</v>
+        <v>2.123655797167045e-08</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>2.133122226918546e-08</v>
+        <v>2.129310341944674e-08</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>2.14048083001691e-08</v>
+        <v>2.135175668968072e-08</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>2.147955146864379e-08</v>
+        <v>2.141177261957184e-08</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>2.155450252474258e-08</v>
+        <v>2.147240604631951e-08</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>2.162871221859856e-08</v>
+        <v>2.153291180712319e-08</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>2.170123130034474e-08</v>
+        <v>2.159254473918226e-08</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>2.177111052011421e-08</v>
+        <v>2.165055967969615e-08</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>2.183740062804008e-08</v>
+        <v>2.170621146586432e-08</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>2.189915237425533e-08</v>
+        <v>2.175875493488614e-08</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>2.195541650889306e-08</v>
+        <v>2.180744492396106e-08</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>2.200524378208635e-08</v>
+        <v>2.18515362702885e-08</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>2.204768494396827e-08</v>
+        <v>2.189028381106791e-08</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>2.208179074467184e-08</v>
+        <v>2.192294238349866e-08</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>2.210661193433015e-08</v>
+        <v>2.194876682478022e-08</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>2.212119926307628e-08</v>
+        <v>2.196701197211199e-08</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>2.212460348104326e-08</v>
+        <v>2.19769326626934e-08</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>2.211587533836419e-08</v>
+        <v>2.197778373372387e-08</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>2.209406558517209e-08</v>
+        <v>2.196882002240282e-08</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>2.205822497160005e-08</v>
+        <v>2.194929636592968e-08</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>2.200740424778115e-08</v>
+        <v>2.191846760150387e-08</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>2.19408082263222e-08</v>
+        <v>2.187563990051915e-08</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>2.185846485544551e-08</v>
+        <v>2.182039370624484e-08</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>2.176067586344186e-08</v>
+        <v>2.175240068649638e-08</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>2.164774316297702e-08</v>
+        <v>2.167133257052364e-08</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>2.151996866671675e-08</v>
+        <v>2.157686108757646e-08</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>2.137765428732676e-08</v>
+        <v>2.146865796690466e-08</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>2.122110193747298e-08</v>
+        <v>2.134639493775821e-08</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>2.105061352982108e-08</v>
+        <v>2.12097437293869e-08</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>2.086649097703681e-08</v>
+        <v>2.105837607104055e-08</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>2.066903619178606e-08</v>
+        <v>2.089196369196915e-08</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>2.045855108673456e-08</v>
+        <v>2.071017832142249e-08</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>2.023533757454808e-08</v>
+        <v>2.051269168865045e-08</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>1.99996975678923e-08</v>
+        <v>2.029917552290279e-08</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>1.975193297943318e-08</v>
+        <v>2.006930155342955e-08</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>1.949234572183643e-08</v>
+        <v>1.982274150948051e-08</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>1.922123770776768e-08</v>
+        <v>1.955916712030542e-08</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>1.893891084989296e-08</v>
+        <v>1.927825011515437e-08</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>1.86455960380463e-08</v>
+        <v>1.897969304032238e-08</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>1.834076971500697e-08</v>
+        <v>1.866352579921638e-08</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>1.802345338613491e-08</v>
+        <v>1.832997569411781e-08</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>1.769266228328181e-08</v>
+        <v>1.797927274940505e-08</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>1.734741163829893e-08</v>
+        <v>1.761164698945603e-08</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>1.698671668303768e-08</v>
+        <v>1.722732843864883e-08</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>1.660959264934929e-08</v>
+        <v>1.682654712136135e-08</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>1.621505476908551e-08</v>
+        <v>1.640953306197201e-08</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>1.580211827409756e-08</v>
+        <v>1.597651628485873e-08</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>1.536979839623668e-08</v>
+        <v>1.552772681439938e-08</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>1.491711036735463e-08</v>
+        <v>1.506339467497244e-08</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>1.444306941930264e-08</v>
+        <v>1.458374989095578e-08</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>1.394669078393189e-08</v>
+        <v>1.408902248672727e-08</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>1.342763060510715e-08</v>
+        <v>1.3579974520255e-08</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>1.289339596829098e-08</v>
+        <v>1.306388526958665e-08</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>1.235675589647244e-08</v>
+        <v>1.255240204996369e-08</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>1.183057639354486e-08</v>
+        <v>1.205725268237189e-08</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>1.132772346340227e-08</v>
+        <v>1.159016498779766e-08</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>1.086106310993798e-08</v>
+        <v>1.116286678722675e-08</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>1.044346133704555e-08</v>
+        <v>1.078708590164513e-08</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>1.008778414861839e-08</v>
+        <v>1.047455015203863e-08</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>9.806897548550374e-09</v>
+        <v>1.023698735939351e-08</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>9.613667540734891e-09</v>
+        <v>1.008612534469559e-08</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>9.520960129065471e-09</v>
+        <v>1.003369192893084e-08</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>9.54164131743576e-09</v>
+        <v>1.009141493308527e-08</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>9.68857710973925e-09</v>
+        <v>1.027102217814481e-08</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>9.973502485967431e-09</v>
+        <v>1.058311607254361e-08</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>1.039206184688152e-08</v>
+        <v>1.102228827569562e-08</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>1.092792565489268e-08</v>
+        <v>1.157121591497943e-08</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>1.156447927981892e-08</v>
+        <v>1.221229243961071e-08</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>1.228510809147842e-08</v>
+        <v>1.292791129880534e-08</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>1.307319745968839e-08</v>
+        <v>1.370046594177818e-08</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>1.391213275426699e-08</v>
+        <v>1.451234981774506e-08</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>1.478529934503206e-08</v>
+        <v>1.53459563759215e-08</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>1.567608260180185e-08</v>
+        <v>1.61836790655234e-08</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>1.656786789439342e-08</v>
+        <v>1.700791133576553e-08</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>1.744404059262501e-08</v>
+        <v>1.780104663586377e-08</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>1.828798606631484e-08</v>
+        <v>1.854547841503397e-08</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>1.908308968527999e-08</v>
+        <v>1.922360012249098e-08</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>1.981273681933871e-08</v>
+        <v>1.981780520745067e-08</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>2.046139957137153e-08</v>
+        <v>2.0314295603102e-08</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>2.102875705252817e-08</v>
+        <v>2.075256659430055e-08</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>2.152567819844527e-08</v>
+        <v>2.121132849366715e-08</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>2.196343613787707e-08</v>
+        <v>2.177018681809885e-08</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>2.243094870085129e-08</v>
+        <v>2.250107314418898e-08</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>2.321901231143153e-08</v>
+        <v>2.345429129308195e-08</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>2.440414313937532e-08</v>
+        <v>2.458560652285585e-08</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>2.565865226309852e-08</v>
+        <v>2.570203911580525e-08</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>2.665883268416746e-08</v>
+        <v>2.661704857159931e-08</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>2.731763351861637e-08</v>
+        <v>2.725975370772792e-08</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>2.763234422411241e-08</v>
+        <v>2.760049241772368e-08</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>2.760035768597363e-08</v>
+        <v>2.760965314260457e-08</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>2.722321131958377e-08</v>
+        <v>2.726261555441513e-08</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>2.658416742799503e-08</v>
+        <v>2.663318008425092e-08</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>2.584130388014627e-08</v>
+        <v>2.588524707026726e-08</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>2.515545782980046e-08</v>
+        <v>2.518603983966943e-08</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>2.468746643072152e-08</v>
+        <v>2.47027817196637e-08</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>2.45981668366724e-08</v>
+        <v>2.460269603745531e-08</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>2.504839620141636e-08</v>
+        <v>2.505300612024985e-08</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>2.619899167871734e-08</v>
+        <v>2.622093529525359e-08</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>2.821079042233763e-08</v>
+        <v>2.827370688967114e-08</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>3.114252482250709e-08</v>
+        <v>3.127084332016447e-08</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>3.386733271781684e-08</v>
+        <v>3.402129251178317e-08</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>3.48744409459983e-08</v>
+        <v>3.492683114629143e-08</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>3.452753786931241e-08</v>
+        <v>3.435542295705302e-08</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>3.376270391589997e-08</v>
+        <v>3.327684841643236e-08</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>3.307562264928045e-08</v>
+        <v>3.225075526113753e-08</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>3.240070936227651e-08</v>
+        <v>3.131406720851776e-08</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>3.163596004719316e-08</v>
+        <v>3.046978971589823e-08</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>3.0679384579107e-08</v>
+        <v>2.972093073593812e-08</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>2.950228845357164e-08</v>
+        <v>2.908367261278642e-08</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>2.832036476488295e-08</v>
+        <v>2.861812470669334e-08</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>2.740017967006242e-08</v>
+        <v>2.839354046646792e-08</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>2.700829932613162e-08</v>
+        <v>2.847917334091934e-08</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>2.738033161124799e-08</v>
+        <v>2.892975365308342e-08</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>2.833555537697621e-08</v>
+        <v>2.960470374900243e-08</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>2.939516937102547e-08</v>
+        <v>3.022361084829805e-08</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>3.007389456393056e-08</v>
+        <v>3.050302332036868e-08</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>2.999017156574984e-08</v>
+        <v>3.022063228554068e-08</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>2.920774336675447e-08</v>
+        <v>2.9416634717863e-08</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>2.790983409786474e-08</v>
+        <v>2.820166175078684e-08</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>2.627966935108062e-08</v>
+        <v>2.668634537906973e-08</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>2.450047465284709e-08</v>
+        <v>2.498131770755675e-08</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>2.274835408845536e-08</v>
+        <v>2.32091699321051e-08</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>2.117269687744478e-08</v>
+        <v>2.153735572852565e-08</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>1.991662904623373e-08</v>
+        <v>2.01438466011008e-08</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>1.912327662124143e-08</v>
+        <v>1.920661405411378e-08</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>1.892538242822597e-08</v>
+        <v>1.889179883714184e-08</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>1.929267811479354e-08</v>
+        <v>1.917980463024182e-08</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>2.006537882928246e-08</v>
+        <v>1.990346231937557e-08</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>2.108012674945083e-08</v>
+        <v>2.089153170107055e-08</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>2.21735640530553e-08</v>
+        <v>2.197277257185284e-08</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>2.318233291785393e-08</v>
+        <v>2.297594472824984e-08</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>2.394307552160433e-08</v>
+        <v>2.372980796678855e-08</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>2.429243404206418e-08</v>
+        <v>2.406312208399603e-08</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>2.406774841187007e-08</v>
+        <v>2.380538436409393e-08</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>2.319724459219578e-08</v>
+        <v>2.288215351585382e-08</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>2.178924723440961e-08</v>
+        <v>2.140934244239504e-08</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>1.997328237768297e-08</v>
+        <v>1.952527272226902e-08</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>1.787887606118545e-08</v>
+        <v>1.736826593402526e-08</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>1.563555432408716e-08</v>
+        <v>1.507664365621383e-08</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>1.337284320555719e-08</v>
+        <v>1.278872746738377e-08</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>1.122026874476776e-08</v>
+        <v>1.064283894608725e-08</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>9.307356980887929e-09</v>
+        <v>8.777299670873284e-09</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>7.763362439883752e-09</v>
+        <v>7.330126586134809e-09</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>6.661394933328299e-09</v>
+        <v>6.376343023071287e-09</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>5.949986385637981e-09</v>
+        <v>5.851197601748963e-09</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>5.560918690320364e-09</v>
+        <v>5.671145633202964e-09</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>5.425973740882995e-09</v>
+        <v>5.752642428468497e-09</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>5.476933430833539e-09</v>
+        <v>6.012143298580581e-09</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>5.645579653679442e-09</v>
+        <v>6.366103554574323e-09</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>5.863694302928371e-09</v>
+        <v>6.730978507485006e-09</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>6.063059272087667e-09</v>
+        <v>7.023223468347393e-09</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>6.179488951726322e-09</v>
+        <v>7.164371736991266e-09</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>6.210128333807534e-09</v>
+        <v>7.153188190083726e-09</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>6.199847644441387e-09</v>
+        <v>7.048536496808228e-09</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>6.194774758703063e-09</v>
+        <v>6.910864041662982e-09</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>6.241037551667723e-09</v>
+        <v>6.800618209146047e-09</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>6.384763898410622e-09</v>
+        <v>6.778246383755538e-09</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>6.672081674006805e-09</v>
+        <v>6.90419594998959e-09</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>7.149118753531473e-09</v>
+        <v>7.238914292346259e-09</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>7.862003012059783e-09</v>
+        <v>7.842848795323638e-09</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>8.839700992615554e-09</v>
+        <v>8.755685918224845e-09</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>1.004040479904671e-08</v>
+        <v>9.931492727112651e-09</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>1.140406424191555e-08</v>
+        <v>1.130226766976548e-08</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>1.287062911310925e-08</v>
+        <v>1.280000917136965e-08</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>1.438004920451566e-08</v>
+        <v>1.435671565711221e-08</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>1.587227430802058e-08</v>
+        <v>1.590438555217802e-08</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>1.728725421551187e-08</v>
+        <v>1.737501728175413e-08</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>1.856493871887722e-08</v>
+        <v>1.870060927102739e-08</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>1.964584292984135e-08</v>
+        <v>1.981374336460818e-08</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>2.057650899509569e-08</v>
+        <v>2.075642306113199e-08</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>2.163358755125513e-08</v>
+        <v>2.180812762737713e-08</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>2.312388843800495e-08</v>
+        <v>2.327946112659561e-08</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>2.535422149503165e-08</v>
+        <v>2.548102762204065e-08</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>2.863139656202132e-08</v>
+        <v>2.872343117696507e-08</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>3.326222347866249e-08</v>
+        <v>3.331727585462407e-08</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>3.955351208463721e-08</v>
+        <v>3.957316571826649e-08</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>4.781207221963332e-08</v>
+        <v>4.780170483114685e-08</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>5.833803705469724e-08</v>
+        <v>5.830679449973414e-08</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>7.105752234591863e-08</v>
+        <v>7.10168571950671e-08</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>8.533170624629586e-08</v>
+        <v>8.529317037082236e-08</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>1.004748584874439e-07</v>
+        <v>1.004499197712305e-07</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>1.158012488009793e-07</v>
+        <v>1.158012911405234e-07</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>1.306251469184977e-07</v>
+        <v>1.306614702229124e-07</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>1.442608225716157e-07</v>
+        <v>1.443446427626296e-07</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>1.560225454919477e-07</v>
+        <v>1.561649945039049e-07</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>1.652245854110926e-07</v>
+        <v>1.654367111909528e-07</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>1.713165828393836e-07</v>
+        <v>1.716089309300507e-07</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>1.744566546411502e-07</v>
+        <v>1.748370783564556e-07</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>1.750339134549986e-07</v>
+        <v>1.755068598963454e-07</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>1.734375990442084e-07</v>
+        <v>1.74004108707642e-07</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>1.70056951172061e-07</v>
+        <v>1.70714657948269e-07</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>1.652812096018364e-07</v>
+        <v>1.660243407761488e-07</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>1.594996140968118e-07</v>
+        <v>1.603189903492014e-07</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>1.531014044202729e-07</v>
+        <v>1.539844398253547e-07</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>1.464758150113393e-07</v>
+        <v>1.474065171096742e-07</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>1.399407186065201e-07</v>
+        <v>1.409006441115987e-07</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>1.335637278554205e-07</v>
+        <v>1.345353342456811e-07</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>1.273576259198947e-07</v>
+        <v>1.283250057390898e-07</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>1.213351959618001e-07</v>
+        <v>1.222840768189959e-07</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>1.155092211429915e-07</v>
+        <v>1.164269657125681e-07</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>1.098924846253315e-07</v>
+        <v>1.107680906469831e-07</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>1.044977695706748e-07</v>
+        <v>1.053218698494094e-07</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>9.933785914087864e-08</v>
+        <v>1.001027215470182e-07</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>9.442553649779834e-08</v>
+        <v>9.512506396697871e-08</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>8.977358480329563e-08</v>
+        <v>9.040331533646666e-08</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>8.539478721922552e-08</v>
+        <v>8.595189388265094e-08</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>8.130192690744369e-08</v>
+        <v>8.178521783270114e-08</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>7.750778702981112e-08</v>
+        <v>7.791770541379224e-08</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>7.402515074818324e-08</v>
+        <v>7.436377485309356e-08</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>7.086680122441609e-08</v>
+        <v>7.113784437777503e-08</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>6.804552162036984e-08</v>
+        <v>6.825433221501079e-08</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>6.557409509790034e-08</v>
+        <v>6.572765659197059e-08</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>6.346184459359993e-08</v>
+        <v>6.356856656235066e-08</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>6.16949779261172e-08</v>
+        <v>6.176330023875625e-08</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>6.025023197403863e-08</v>
+        <v>6.028805288415163e-08</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>5.910431500300393e-08</v>
+        <v>5.911898942074096e-08</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>5.823393527865365e-08</v>
+        <v>5.823227477072922e-08</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>5.761580106662814e-08</v>
+        <v>5.76040738563212e-08</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>5.722662063256853e-08</v>
+        <v>5.721055159972246e-08</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>5.704310224211501e-08</v>
+        <v>5.702787292313763e-08</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>5.704195416090824e-08</v>
+        <v>5.703220274877178e-08</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>5.719988465458872e-08</v>
+        <v>5.719970599882989e-08</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>5.749360198879703e-08</v>
+        <v>5.750654759551692e-08</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>5.78998144291739e-08</v>
+        <v>5.792889246103808e-08</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>5.839523024135955e-08</v>
+        <v>5.844290551759799e-08</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>5.895655769099469e-08</v>
+        <v>5.902475168740182e-08</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>5.956050504372017e-08</v>
+        <v>5.965059589265484e-08</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>6.018378056517569e-08</v>
+        <v>6.029660305556122e-08</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>6.0803092521003e-08</v>
+        <v>6.093893809832707e-08</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>6.1395149176842e-08</v>
+        <v>6.15537659431568e-08</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>6.193665879833284e-08</v>
+        <v>6.211725151225492e-08</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>6.240432965111698e-08</v>
+        <v>6.260555972782741e-08</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>6.277487000083419e-08</v>
+        <v>6.299485551207842e-08</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>6.302498811312572e-08</v>
+        <v>6.326130378721361e-08</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>6.313139225363165e-08</v>
+        <v>6.338106947543758e-08</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>6.307079068799271e-08</v>
+        <v>6.333031749895541e-08</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>6.281989168184931e-08</v>
+        <v>6.3085212779972e-08</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>6.2355403500842e-08</v>
+        <v>6.262192024069229e-08</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>6.165628299034831e-08</v>
+        <v>6.191890445565875e-08</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>6.072770392862473e-08</v>
+        <v>6.098144240458875e-08</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>5.959179097090953e-08</v>
+        <v>5.983214695404066e-08</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>5.827095294169206e-08</v>
+        <v>5.8493921594237e-08</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>5.678759866545798e-08</v>
+        <v>5.698966981539659e-08</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>5.51641369666965e-08</v>
+        <v>5.534229510774186e-08</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>5.342297666989733e-08</v>
+        <v>5.357470096149571e-08</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>5.158652659954541e-08</v>
+        <v>5.170979086687621e-08</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>4.967719558013034e-08</v>
+        <v>4.97704683141062e-08</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>4.771739243614197e-08</v>
+        <v>4.777963679340874e-08</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>4.572952599206486e-08</v>
+        <v>4.576019979500151e-08</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>4.373600507239064e-08</v>
+        <v>4.373506080910936e-08</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>4.175923850160375e-08</v>
+        <v>4.17271233259499e-08</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>3.982163510419412e-08</v>
+        <v>3.975929083574625e-08</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>3.794560370465148e-08</v>
+        <v>3.785446682872136e-08</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>3.615355312746049e-08</v>
+        <v>3.603555479509303e-08</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>3.4467892197111e-08</v>
+        <v>3.432545822508432e-08</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>3.291059993883947e-08</v>
+        <v>3.274664080949149e-08</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>3.149123715988311e-08</v>
+        <v>3.130885908544609e-08</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>3.020535140979266e-08</v>
+        <v>3.000753028481242e-08</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>2.904773996996935e-08</v>
+        <v>2.883730391475653e-08</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>2.801320012181128e-08</v>
+        <v>2.779282948244137e-08</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>2.709652914672051e-08</v>
+        <v>2.686875649503386e-08</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>2.629252432609561e-08</v>
+        <v>2.605973445969739e-08</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>2.559598294133766e-08</v>
+        <v>2.53604128835979e-08</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>2.500170227384734e-08</v>
+        <v>2.476544127390091e-08</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>2.450447960502379e-08</v>
+        <v>2.426946913777043e-08</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>2.409911221626779e-08</v>
+        <v>2.386714598237205e-08</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>2.378039738897978e-08</v>
+        <v>2.355312131487108e-08</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>2.35431324045594e-08</v>
+        <v>2.3322044642432e-08</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>2.338211454440718e-08</v>
+        <v>2.316856547222018e-08</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>2.329214108992336e-08</v>
+        <v>2.308733331140071e-08</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>2.326800932250798e-08</v>
+        <v>2.307299766713849e-08</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>2.330451652356136e-08</v>
+        <v>2.312020804659866e-08</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>2.33964599744836e-08</v>
+        <v>2.322361395694618e-08</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>2.353863695667505e-08</v>
+        <v>2.337786490534625e-08</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>2.372584475153568e-08</v>
+        <v>2.357761039896367e-08</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>2.395288064046602e-08</v>
+        <v>2.381749994496383e-08</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>2.421454190486613e-08</v>
+        <v>2.409218305051164e-08</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>2.450562582613594e-08</v>
+        <v>2.439630922277185e-08</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>2.482092968567617e-08</v>
+        <v>2.472452796891006e-08</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>2.515525076488678e-08</v>
+        <v>2.507148879609105e-08</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>2.550338634516762e-08</v>
+        <v>2.543184121147953e-08</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>2.586013370791957e-08</v>
+        <v>2.580023472224121e-08</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>2.622029013454248e-08</v>
+        <v>2.617131883554082e-08</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>2.657865290643626e-08</v>
+        <v>2.653974305854306e-08</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>2.693001930500174e-08</v>
+        <v>2.690015689841366e-08</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>2.72691866116388e-08</v>
+        <v>2.724720986231732e-08</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>2.759095210774735e-08</v>
+        <v>2.757555145741879e-08</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>2.78901130747282e-08</v>
+        <v>2.787983119088375e-08</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>2.8161466793981e-08</v>
+        <v>2.815469856987668e-08</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>2.839981054690645e-08</v>
+        <v>2.839480310156311e-08</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>2.860091506830308e-08</v>
+        <v>2.859578395312853e-08</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>2.877542336737528e-08</v>
+        <v>2.876840016849547e-08</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>2.894558598593346e-08</v>
+        <v>2.893521157319086e-08</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>2.913396137190869e-08</v>
+        <v>2.911909102506369e-08</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>2.936310797323199e-08</v>
+        <v>2.934291138196292e-08</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>2.965558423783504e-08</v>
+        <v>2.962954550173809e-08</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>3.003394861364891e-08</v>
+        <v>3.00018662422382e-08</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>3.052075954860439e-08</v>
+        <v>3.048274646131195e-08</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>3.113857549063356e-08</v>
+        <v>3.109505901680935e-08</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>3.190995488766657e-08</v>
+        <v>3.186167676657843e-08</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>3.285745618763603e-08</v>
+        <v>3.28054725684697e-08</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>3.400363783847258e-08</v>
+        <v>3.394931928033175e-08</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>3.537105828810615e-08</v>
+        <v>3.53160897600124e-08</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>3.698227598447046e-08</v>
+        <v>3.692865686536327e-08</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>3.885984937549563e-08</v>
+        <v>3.88098934542324e-08</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>4.102633690911083e-08</v>
+        <v>4.098267238446687e-08</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>4.350429703325123e-08</v>
+        <v>4.346986651391975e-08</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>4.631628819584626e-08</v>
+        <v>4.629434870043839e-08</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>4.948486884482416e-08</v>
+        <v>4.947899180186892e-08</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>5.303259742812189e-08</v>
+        <v>5.304666867606624e-08</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>5.698203239366802e-08</v>
+        <v>5.702025218087682e-08</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>6.135573218938969e-08</v>
+        <v>6.142261517414567e-08</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>6.616479768796354e-08</v>
+        <v>6.626508306337593e-08</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>7.129711393957685e-08</v>
+        <v>7.143479890854766e-08</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>7.656556709618798e-08</v>
+        <v>7.674331856780633e-08</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>8.17819806076954e-08</v>
+        <v>8.200112686122905e-08</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>8.675817792397908e-08</v>
+        <v>8.701870860887423e-08</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>9.130598249493699e-08</v>
+        <v>9.160654863081851e-08</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>9.523721777045348e-08</v>
+        <v>9.557513174712476e-08</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>9.8363707200415e-08</v>
+        <v>9.873494277785792e-08</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>1.004972742347163e-07</v>
+        <v>1.008964665430914e-07</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>1.014497423232431e-07</v>
+        <v>1.018701878628894e-07</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>1.010329349158853e-07</v>
+        <v>1.014665915573203e-07</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>9.905867546253134e-08</v>
+        <v>9.949616244645127e-08</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>9.533878741306975e-08</v>
+        <v>9.576938535034927e-08</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>8.975097260475174e-08</v>
+        <v>9.016294087269993e-08</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>8.262576700435322e-08</v>
+        <v>8.300852546158208e-08</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>7.448407068701991e-08</v>
+        <v>7.482911683091673e-08</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>6.584744249428098e-08</v>
+        <v>6.614835463488671e-08</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>5.723744126768772e-08</v>
+        <v>5.748987852769711e-08</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>4.917562584879126e-08</v>
+        <v>4.937732816355272e-08</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>4.218355507912098e-08</v>
+        <v>4.233434319663658e-08</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>3.678278780022874e-08</v>
+        <v>3.688456328115429e-08</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>3.349488285366067e-08</v>
+        <v>3.355162807130574e-08</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>3.272154102249679e-08</v>
+        <v>3.273895431812167e-08</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>3.431710423371319e-08</v>
+        <v>3.430093377090827e-08</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>3.797975393038017e-08</v>
+        <v>3.793532234675733e-08</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>4.340765977162775e-08</v>
+        <v>4.333986414295032e-08</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>5.029899141656997e-08</v>
+        <v>5.021230325675281e-08</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>5.83519185243427e-08</v>
+        <v>5.825038378545215e-08</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>6.726461075406359e-08</v>
+        <v>6.715184982631743e-08</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>7.673523776484716e-08</v>
+        <v>7.661444547661469e-08</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>8.646196921583395e-08</v>
+        <v>8.633591483363595e-08</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>9.614297476613885e-08</v>
+        <v>9.601400199464757e-08</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>1.054764240748769e-07</v>
+        <v>1.053464510569161e-07</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>1.141604868011885e-07</v>
+        <v>1.140310061177334e-07</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>1.21893332604188e-07</v>
+        <v>1.217654112743654e-07</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>1.283731311429938e-07</v>
+        <v>1.282474106240818e-07</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>1.332980520767408e-07</v>
+        <v>1.33174748264169e-07</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>1.363662650645458e-07</v>
+        <v>1.362451682918955e-07</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>1.372759397655323e-07</v>
+        <v>1.371564148045361e-07</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>1.357880233550333e-07</v>
+        <v>1.356690808996194e-07</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>1.320843280597649e-07</v>
+        <v>1.319651039603074e-07</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>1.265196620344644e-07</v>
+        <v>1.263996142862797e-07</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>1.194493652583603e-07</v>
+        <v>1.1932827460729e-07</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>1.112287777107034e-07</v>
+        <v>1.11106747653114e-07</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>1.022132393707175e-07</v>
+        <v>1.020906961535007e-07</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>9.275809021764832e-08</v>
+        <v>9.263578283822072e-08</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>8.321867023074316e-08</v>
+        <v>8.30976704370465e-08</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>7.395031938922347e-08</v>
+        <v>7.383202167972452e-08</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>6.530837767233665e-08</v>
+        <v>6.519449929602718e-08</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>5.764795663926681e-08</v>
+        <v>5.754053722181798e-08</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>5.119764750789914e-08</v>
+        <v>5.109884198103565e-08</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>4.584963976348891e-08</v>
+        <v>4.576116779014391e-08</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>4.144083081623936e-08</v>
+        <v>4.136388629629501e-08</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>3.780811807634229e-08</v>
+        <v>3.774336914662988e-08</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>3.478839895400424e-08</v>
+        <v>3.473598798830404e-08</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>3.221857085941951e-08</v>
+        <v>3.21781144684609e-08</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>2.993605366190284e-08</v>
+        <v>2.990664459871604e-08</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>2.78301718311665e-08</v>
+        <v>2.781056828153981e-08</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>2.588548107596793e-08</v>
+        <v>2.587445395646459e-08</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>2.40967386418336e-08</v>
+        <v>2.409310880369168e-08</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>2.245870177428944e-08</v>
+        <v>2.246134000342186e-08</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>2.096612771885703e-08</v>
+        <v>2.097395473585153e-08</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>1.961377372106242e-08</v>
+        <v>1.962576018118158e-08</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>1.839639702643118e-08</v>
+        <v>1.841156351961242e-08</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>1.730875488048564e-08</v>
+        <v>1.73261719313412e-08</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>1.634560452875145e-08</v>
+        <v>1.636439259656844e-08</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>1.550170321675385e-08</v>
+        <v>1.552103269549419e-08</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>1.477180819001586e-08</v>
+        <v>1.479089940831631e-08</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>1.415067669406278e-08</v>
+        <v>1.416879991523495e-08</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>1.363306597441957e-08</v>
+        <v>1.36495413964499e-08</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>1.321373327660981e-08</v>
+        <v>1.322793103215957e-08</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>1.28874358461588e-08</v>
+        <v>1.289877600256409e-08</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>1.264893092859045e-08</v>
+        <v>1.265688348786223e-08</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>1.249297576942963e-08</v>
+        <v>1.249706066825368e-08</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>1.241432761420089e-08</v>
+        <v>1.241411472393784e-08</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>1.240774370842862e-08</v>
+        <v>1.240285283511391e-08</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>1.246798129763742e-08</v>
+        <v>1.245808218198136e-08</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>1.25897976273517e-08</v>
+        <v>1.257460994473941e-08</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>1.276794994309618e-08</v>
+        <v>1.274724330358764e-08</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>1.299719549039531e-08</v>
+        <v>1.297078943872531e-08</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>1.327229151477333e-08</v>
+        <v>1.324005553035153e-08</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>1.358799526175527e-08</v>
+        <v>1.354984875866613e-08</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>1.393906397686507e-08</v>
+        <v>1.389497630386791e-08</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>1.432025490562792e-08</v>
+        <v>1.427024534615688e-08</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>1.472632529356799e-08</v>
+        <v>1.467046306573208e-08</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>1.515203238620945e-08</v>
+        <v>1.509043664279247e-08</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>1.559213342907757e-08</v>
+        <v>1.552497325753819e-08</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>1.604138566769649e-08</v>
+        <v>1.596888009016821e-08</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>1.649454634759032e-08</v>
+        <v>1.641696432088147e-08</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>1.69463727142844e-08</v>
+        <v>1.686403312987815e-08</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>1.739162201330285e-08</v>
+        <v>1.730489369735722e-08</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>1.78250514901698e-08</v>
+        <v>1.773435320351762e-08</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>1.824141839041055e-08</v>
+        <v>1.814721882855949e-08</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>1.863547995954888e-08</v>
+        <v>1.853829775268147e-08</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>1.900199344311001e-08</v>
+        <v>1.890239715608361e-08</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>1.933571608661812e-08</v>
+        <v>1.923432421896491e-08</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>1.963140668348729e-08</v>
+        <v>1.952888765030368e-08</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>1.988544326897968e-08</v>
+        <v>1.978249540939022e-08</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>2.009888875458103e-08</v>
+        <v>1.999618249116781e-08</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>2.027364840223168e-08</v>
+        <v>2.017181584117996e-08</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>2.041162747387246e-08</v>
+        <v>2.031126240497061e-08</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>2.051473123144371e-08</v>
+        <v>2.041638912808323e-08</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>2.058486493688586e-08</v>
+        <v>2.04890629560614e-08</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>2.062393385213957e-08</v>
+        <v>2.053115083444888e-08</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>2.063384323914525e-08</v>
+        <v>2.054451970878924e-08</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>2.061649835984344e-08</v>
+        <v>2.053103652462613e-08</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>2.057380447617461e-08</v>
+        <v>2.049256822750317e-08</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>2.050766685007926e-08</v>
+        <v>2.043098176296398e-08</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>2.0419990743498e-08</v>
+        <v>2.03481440765523e-08</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>2.031268141837116e-08</v>
+        <v>2.024592211381159e-08</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>2.018764413663944e-08</v>
+        <v>2.012618282028569e-08</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>2.004678416024313e-08</v>
+        <v>1.999079314151802e-08</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>1.989200675112283e-08</v>
+        <v>1.984162002305229e-08</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>1.97252171712192e-08</v>
+        <v>1.968053041043232e-08</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>1.954832068247243e-08</v>
+        <v>1.950939124920143e-08</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>1.93632225468232e-08</v>
+        <v>1.933006948490341e-08</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>1.917182802621217e-08</v>
+        <v>1.914443206308205e-08</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>1.89760423825795e-08</v>
+        <v>1.895434592928066e-08</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>1.877777087786586e-08</v>
+        <v>1.876167802904304e-08</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>1.857891877401195e-08</v>
+        <v>1.856829530791301e-08</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>1.838139133295791e-08</v>
+        <v>1.837606471143384e-08</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>1.818709381664459e-08</v>
+        <v>1.818685318514952e-08</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>1.799793148701216e-08</v>
+        <v>1.800252767460334e-08</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>1.781580960600127e-08</v>
+        <v>1.78249551253391e-08</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>1.764263343555261e-08</v>
+        <v>1.76560024829006e-08</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>1.748030823760635e-08</v>
+        <v>1.749753669283115e-08</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>1.733073927410317e-08</v>
+        <v>1.735142470067457e-08</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>1.719583180698368e-08</v>
+        <v>1.721953345197459e-08</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>1.707749109818815e-08</v>
+        <v>1.71037298922746e-08</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>1.69776224096572e-08</v>
+        <v>1.700588096711838e-08</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>1.689813100333141e-08</v>
+        <v>1.692785362204962e-08</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>1.684092214115113e-08</v>
+        <v>1.68715148026118e-08</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>1.680790108505697e-08</v>
+        <v>1.683873145434868e-08</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>1.680097309698938e-08</v>
+        <v>1.683137052280382e-08</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>1.682204340445724e-08</v>
+        <v>1.685129891974415e-08</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>1.68720290200041e-08</v>
+        <v>1.689941413829775e-08</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>1.694827440215167e-08</v>
+        <v>1.697310906927586e-08</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.704731695840914e-08</v>
+        <v>1.706898490297771e-08</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>1.716569409628531e-08</v>
+        <v>1.718364282970218e-08</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>1.729994322328944e-08</v>
+        <v>1.731368403974854e-08</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>1.744660174693042e-08</v>
+        <v>1.745570972341576e-08</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>1.760220707471713e-08</v>
+        <v>1.760632107100277e-08</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>1.776329661415887e-08</v>
+        <v>1.776211927280889e-08</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>1.79264077727645e-08</v>
+        <v>1.791970551913307e-08</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>1.808807795804292e-08</v>
+        <v>1.807568100027422e-08</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>1.82448445775034e-08</v>
+        <v>1.822664690653168e-08</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>1.839324503865482e-08</v>
+        <v>1.836920442820438e-08</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>1.852981674900608e-08</v>
+        <v>1.849995475559127e-08</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>1.865109711606644e-08</v>
+        <v>1.861549907899165e-08</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>1.87536235473447e-08</v>
+        <v>1.871243858870438e-08</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>1.883393345035004e-08</v>
+        <v>1.878737447502869e-08</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>1.88885642325914e-08</v>
+        <v>1.883690792826356e-08</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>1.891427239145235e-08</v>
+        <v>1.885785900161986e-08</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>1.89116609019174e-08</v>
+        <v>1.885089024121069e-08</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>1.888461428491473e-08</v>
+        <v>1.881994233962629e-08</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>1.883712227050902e-08</v>
+        <v>1.876906108960359e-08</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>1.877317458876481e-08</v>
+        <v>1.870229228387943e-08</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>1.869676096974674e-08</v>
+        <v>1.862368171519072e-08</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>1.861187114351953e-08</v>
+        <v>1.853727517627448e-08</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>1.852249484014765e-08</v>
+        <v>1.844711845986743e-08</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>1.843262178969589e-08</v>
+        <v>1.835725735870665e-08</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>1.834624172222869e-08</v>
+        <v>1.827173766552886e-08</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>1.826734436781077e-08</v>
+        <v>1.819460517307107e-08</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>1.819991945650682e-08</v>
+        <v>1.812990567407022e-08</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>1.814795671838133e-08</v>
+        <v>1.808168496126311e-08</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>1.811544588349899e-08</v>
+        <v>1.80539888273867e-08</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>1.81063574745123e-08</v>
+        <v>1.80508427395273e-08</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>1.812136484668691e-08</v>
+        <v>1.807278303923374e-08</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>1.815413327916725e-08</v>
+        <v>1.81129299879792e-08</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>1.819743155128564e-08</v>
+        <v>1.816345515400355e-08</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>1.824402844237446e-08</v>
+        <v>1.82165301055468e-08</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>1.8286692731766e-08</v>
+        <v>1.82643264108488e-08</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>1.831819319879265e-08</v>
+        <v>1.829901563814956e-08</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>1.833129862278671e-08</v>
+        <v>1.831276935568895e-08</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>1.831877778308051e-08</v>
+        <v>1.829775913170689e-08</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>1.827377957728445e-08</v>
+        <v>1.824657891000668e-08</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>1.820142029944911e-08</v>
+        <v>1.816512043169629e-08</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>1.812090791803905e-08</v>
+        <v>1.80749336665533e-08</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>1.805225893439746e-08</v>
+        <v>1.799846700084782e-08</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>1.801548984986779e-08</v>
+        <v>1.795816882085022e-08</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>1.803061716579336e-08</v>
+        <v>1.797648751283075e-08</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>1.811765738351758e-08</v>
+        <v>1.807587146305974e-08</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>1.829417585566401e-08</v>
+        <v>1.827605113431555e-08</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>1.853631542657111e-08</v>
+        <v>1.855082619478483e-08</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>1.878571554489356e-08</v>
+        <v>1.88357376835785e-08</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>1.898296283962728e-08</v>
+        <v>1.906515923480249e-08</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>1.906864393976832e-08</v>
+        <v>1.917346448256292e-08</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>1.900137202697019e-08</v>
+        <v>1.911462416893877e-08</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>1.88204185707425e-08</v>
+        <v>1.893029464101953e-08</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>1.858760527389166e-08</v>
+        <v>1.86866471581537e-08</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>1.836475489037728e-08</v>
+        <v>1.844985412242429e-08</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>1.820318041040777e-08</v>
+        <v>1.827491791887724e-08</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>1.810734172393931e-08</v>
+        <v>1.816704438713246e-08</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>1.806864723404215e-08</v>
+        <v>1.81175679483531e-08</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>1.807850479111011e-08</v>
+        <v>1.811782243630524e-08</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>1.812832224553706e-08</v>
+        <v>1.815914168475494e-08</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>1.820950744771687e-08</v>
+        <v>1.823285952746832e-08</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>1.831346824804327e-08</v>
+        <v>1.833030979821132e-08</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>1.843161249691032e-08</v>
+        <v>1.844282633075022e-08</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>1.855534804471167e-08</v>
+        <v>1.856174295885091e-08</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>1.867608274184139e-08</v>
+        <v>1.867839351627966e-08</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>1.878522443869323e-08</v>
+        <v>1.878411183680247e-08</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>1.887418098566103e-08</v>
+        <v>1.887023175418538e-08</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>1.893436023313861e-08</v>
+        <v>1.892808710219446e-08</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>1.895749343502306e-08</v>
+        <v>1.894933811096903e-08</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>1.894312142386748e-08</v>
+        <v>1.893352686141558e-08</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>1.889880663258808e-08</v>
+        <v>1.888829126902527e-08</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>1.883247731148406e-08</v>
+        <v>1.882163845205268e-08</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>1.875206171085471e-08</v>
+        <v>1.87415755287525e-08</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>1.866548808099909e-08</v>
+        <v>1.865610961737916e-08</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>1.858068467221648e-08</v>
+        <v>1.857324783618733e-08</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>1.850557973480616e-08</v>
+        <v>1.850099730343166e-08</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>1.844810151906719e-08</v>
+        <v>1.84473651373666e-08</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>1.841617827529887e-08</v>
+        <v>1.842035845624683e-08</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>1.841773825380039e-08</v>
+        <v>1.842798437832691e-08</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>1.846070970487095e-08</v>
+        <v>1.847825002186145e-08</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>1.855302087880969e-08</v>
+        <v>1.857916250510493e-08</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>1.870104180384633e-08</v>
+        <v>1.873704945834866e-08</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>1.890231521809863e-08</v>
+        <v>1.894872425343388e-08</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>1.915127905167876e-08</v>
+        <v>1.920765382797029e-08</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>1.944236780327754e-08</v>
+        <v>1.950730142110183e-08</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>1.97700159715851e-08</v>
+        <v>1.984113027197177e-08</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>2.012865805529147e-08</v>
+        <v>2.020260361972325e-08</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>2.051272855308765e-08</v>
+        <v>2.058518470350039e-08</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>2.091666196366368e-08</v>
+        <v>2.098233676244637e-08</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>2.133489317367435e-08</v>
+        <v>2.13875234386363e-08</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>2.183189251864975e-08</v>
+        <v>2.186694570344322e-08</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>2.273754117131212e-08</v>
+        <v>2.276245458509181e-08</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>2.444124582917173e-08</v>
+        <v>2.44777017440326e-08</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>2.711679448561391e-08</v>
+        <v>2.719102434569904e-08</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>3.059456653274616e-08</v>
+        <v>3.072190879674901e-08</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>3.467429881949518e-08</v>
+        <v>3.485782104823602e-08</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>3.915572819477839e-08</v>
+        <v>3.938622705120421e-08</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>4.383859150751179e-08</v>
+        <v>4.409459275669637e-08</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>4.852180681724966e-08</v>
+        <v>4.876974507775182e-08</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>5.295208645055726e-08</v>
+        <v>5.315776608009427e-08</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>5.679340232568045e-08</v>
+        <v>5.694016167831353e-08</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>5.970239167102897e-08</v>
+        <v>5.979271330426083e-08</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>6.133569171500074e-08</v>
+        <v>6.13912023897758e-08</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>6.140591157319663e-08</v>
+        <v>6.146518470954564e-08</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>6.016907323674883e-08</v>
+        <v>6.026629366931147e-08</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>5.818677710972542e-08</v>
+        <v>5.833974359847375e-08</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>5.602402898363694e-08</v>
+        <v>5.623402051300648e-08</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>5.424583464998777e-08</v>
+        <v>5.449761042887773e-08</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>5.336480803396985e-08</v>
+        <v>5.362798283200332e-08</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>5.330420691229494e-08</v>
+        <v>5.354872221857429e-08</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>5.361620896368293e-08</v>
+        <v>5.382207419186896e-08</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>5.384720557596885e-08</v>
+        <v>5.400464995991324e-08</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>5.354358813698857e-08</v>
+        <v>5.365306073073375e-08</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>5.225841028391054e-08</v>
+        <v>5.233046578490236e-08</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>4.985027606905901e-08</v>
+        <v>4.990033833373435e-08</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>4.660396340555941e-08</v>
+        <v>4.66450217355611e-08</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>4.283587752612527e-08</v>
+        <v>4.287794464329493e-08</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>3.886242366347201e-08</v>
+        <v>3.891253570984996e-08</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>3.500000705030406e-08</v>
+        <v>3.506222358812944e-08</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>3.156503291933961e-08</v>
+        <v>3.164043693105026e-08</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>2.88689458005511e-08</v>
+        <v>2.895568561880607e-08</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>2.704999640894195e-08</v>
+        <v>2.714474962626014e-08</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>2.603220278871106e-08</v>
+        <v>2.613198704541278e-08</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>2.572629798439767e-08</v>
+        <v>2.582858325921418e-08</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>2.604301504054404e-08</v>
+        <v>2.614572365061751e-08</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>2.689308700169021e-08</v>
+        <v>2.699459360257373e-08</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>2.818724691237876e-08</v>
+        <v>2.828637849803635e-08</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>2.983622781715016e-08</v>
+        <v>2.993226371995677e-08</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>3.175076276054359e-08</v>
+        <v>3.18434346512851e-08</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>3.384158478710357e-08</v>
+        <v>3.393107667497678e-08</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>3.601942694136753e-08</v>
+        <v>3.610637517398016e-08</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>3.819502226788042e-08</v>
+        <v>3.828051553125113e-08</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>4.027910381118133e-08</v>
+        <v>4.03646831297397e-08</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>4.21834378871226e-08</v>
+        <v>4.227107696870934e-08</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>4.384781933235984e-08</v>
+        <v>4.39393914066413e-08</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>4.524266693511349e-08</v>
+        <v>4.533936222142876e-08</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>4.633995311760705e-08</v>
+        <v>4.644224927157201e-08</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>4.711165030206845e-08</v>
+        <v>4.721931241557584e-08</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>4.752973091072252e-08</v>
+        <v>4.764181151194191e-08</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>4.756616736579533e-08</v>
+        <v>4.768100641917313e-08</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>4.719293208951294e-08</v>
+        <v>4.730815699577238e-08</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>4.638204440301468e-08</v>
+        <v>4.649457041121619e-08</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>4.514281106040199e-08</v>
+        <v>4.524916888051784e-08</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>4.358882312992872e-08</v>
+        <v>4.36860751893385e-08</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>4.18517631723616e-08</v>
+        <v>4.193766257022288e-08</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>4.006331374846799e-08</v>
+        <v>4.013630425571634e-08</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>3.835515741901034e-08</v>
+        <v>3.841437347835926e-08</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>3.685897674475724e-08</v>
+        <v>3.690424347069827e-08</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>3.570645428647166e-08</v>
+        <v>3.573828746527427e-08</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>3.502927260492083e-08</v>
+        <v>3.50488786946325e-08</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>3.495911426087028e-08</v>
+        <v>3.496839039131648e-08</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>3.562766181508555e-08</v>
+        <v>3.562919578786969e-08</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>3.716659782833275e-08</v>
+        <v>3.716366811683626e-08</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>3.970760486137488e-08</v>
+        <v>3.970418061075716e-08</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>4.338236547498221e-08</v>
+        <v>4.338310650218063e-08</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>4.829719677855319e-08</v>
+        <v>4.830733867909771e-08</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>5.424101586355735e-08</v>
+        <v>5.426493234351625e-08</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>6.078673535112419e-08</v>
+        <v>6.082695983167548e-08</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>6.750312786771666e-08</v>
+        <v>6.756033473298126e-08</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>7.395896603982107e-08</v>
+        <v>7.403197063686296e-08</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>7.972302249390526e-08</v>
+        <v>7.980878113273133e-08</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>8.436935983217976e-08</v>
+        <v>8.446322129534296e-08</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>8.752039932597753e-08</v>
+        <v>8.761840406053291e-08</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>8.8824478991864e-08</v>
+        <v>8.892459130978484e-08</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>9.288858808662604e-08</v>
+        <v>9.29972928165984e-08</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>1.109539261183702e-07</v>
+        <v>1.110931251670231e-07</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>1.347461637280007e-07</v>
+        <v>1.349241727277089e-07</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>1.538092130922111e-07</v>
+        <v>1.540176055551613e-07</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>1.587287938295217e-07</v>
+        <v>1.589441168942697e-07</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>1.510728167007618e-07</v>
+        <v>1.512746776383209e-07</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>1.389928722042793e-07</v>
+        <v>1.391747810416105e-07</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>1.306604123979638e-07</v>
+        <v>1.308298058444479e-07</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>1.290391761941259e-07</v>
+        <v>1.292081818223271e-07</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>1.285622066949603e-07</v>
+        <v>1.287325237147086e-07</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>1.264011214633011e-07</v>
+        <v>1.265690476129905e-07</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>1.227419735133737e-07</v>
+        <v>1.229038945677026e-07</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>1.178652240493577e-07</v>
+        <v>1.180177857435577e-07</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>1.120513342754424e-07</v>
+        <v>1.121914423052777e-07</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>1.055807653958203e-07</v>
+        <v>1.057055854175882e-07</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>9.873397861466615e-08</v>
+        <v>9.884093624519683e-08</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>9.178219968623273e-08</v>
+        <v>9.186902402957647e-08</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>8.486419282257097e-08</v>
+        <v>8.492954076141154e-08</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>7.801960555587737e-08</v>
+        <v>7.806352888856744e-08</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>7.128569524707517e-08</v>
+        <v>7.130965195251686e-08</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>6.469971925708727e-08</v>
+        <v>6.470657349473197e-08</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>5.829893494681882e-08</v>
+        <v>5.829295705666721e-08</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>5.212059967719829e-08</v>
+        <v>5.21074661798004e-08</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>4.620197080913151e-08</v>
+        <v>4.618876440558664e-08</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>4.058041706179737e-08</v>
+        <v>4.057562012162607e-08</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>3.532488244830274e-08</v>
+        <v>3.533653051538367e-08</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>3.057914466355104e-08</v>
+        <v>3.061045025143729e-08</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>2.649782332586788e-08</v>
+        <v>2.654654189210697e-08</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>2.32355380535765e-08</v>
+        <v>2.329396799971036e-08</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>2.093611519436455e-08</v>
+        <v>2.09914347058063e-08</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>1.956196663261733e-08</v>
+        <v>1.960189531983263e-08</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>1.892490868429866e-08</v>
+        <v>1.894240741795855e-08</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>1.883219523171682e-08</v>
+        <v>1.882560852860108e-08</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>1.909108015718166e-08</v>
+        <v>1.906413618017895e-08</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>1.950881734300311e-08</v>
+        <v>1.947062790111084e-08</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>1.989266067149033e-08</v>
+        <v>1.985772121981477e-08</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>2.006744311001444e-08</v>
+        <v>2.005468366729037e-08</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>2.003708958575576e-08</v>
+        <v>2.006020568497299e-08</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>1.991010307092815e-08</v>
+        <v>1.997190966398516e-08</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>1.979629705123072e-08</v>
+        <v>1.988865775523017e-08</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>1.980548501236222e-08</v>
+        <v>1.990931210961109e-08</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>2.004690535382286e-08</v>
+        <v>2.013222933359251e-08</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>2.054147206444886e-08</v>
+        <v>2.057812216963892e-08</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>2.112742406799053e-08</v>
+        <v>2.110711810634095e-08</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>2.162861884450059e-08</v>
+        <v>2.156656237430692e-08</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>2.198338319054987e-08</v>
+        <v>2.190248644861089e-08</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>2.22137918583089e-08</v>
+        <v>2.213312256057492e-08</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>2.234383587542617e-08</v>
+        <v>2.227835500022155e-08</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>2.239750626955017e-08</v>
+        <v>2.235806805757321e-08</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>2.23987940683295e-08</v>
+        <v>2.239214602265257e-08</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>2.237169029941258e-08</v>
+        <v>2.240047318548201e-08</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>2.234005688242905e-08</v>
+        <v>2.240282764060265e-08</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>2.231902561207201e-08</v>
+        <v>2.241180667513032e-08</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>2.23095984742346e-08</v>
+        <v>2.242838535580187e-08</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>2.231148928956728e-08</v>
+        <v>2.245247919217645e-08</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>2.232441187872061e-08</v>
+        <v>2.248400369381318e-08</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>2.234808006234501e-08</v>
+        <v>2.252287437027113e-08</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>2.238220766109108e-08</v>
+        <v>2.256900673110951e-08</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>2.242650849560929e-08</v>
+        <v>2.262231628588741e-08</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>2.248069638655008e-08</v>
+        <v>2.268271854416389e-08</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>2.254448515456407e-08</v>
+        <v>2.27501290154982e-08</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>2.261758862030164e-08</v>
+        <v>2.282446320944934e-08</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>2.269972060441344e-08</v>
+        <v>2.290563663557655e-08</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>2.279059492754989e-08</v>
+        <v>2.299356480343891e-08</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>2.288992541036142e-08</v>
+        <v>2.308816322259545e-08</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>2.29974258734987e-08</v>
+        <v>2.318934740260547e-08</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>2.311281013761217e-08</v>
+        <v>2.329703285302801e-08</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>2.32357920233522e-08</v>
+        <v>2.341113508342208e-08</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>2.336608535136952e-08</v>
+        <v>2.353156960334703e-08</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>2.350340394231453e-08</v>
+        <v>2.365825192236188e-08</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>2.36474616168376e-08</v>
+        <v>2.379109755002562e-08</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>2.379797219558951e-08</v>
+        <v>2.393002199589762e-08</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>2.395464949922047e-08</v>
+        <v>2.407494076953677e-08</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>2.411720734838128e-08</v>
+        <v>2.422576938050243e-08</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>2.428535956372231e-08</v>
+        <v>2.438242333835362e-08</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>2.445881996589406e-08</v>
+        <v>2.454481815264946e-08</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>2.463730237554686e-08</v>
+        <v>2.471286933294891e-08</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>2.482052061333156e-08</v>
+        <v>2.488649238881141e-08</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>2.50083773283979e-08</v>
+        <v>2.506576311674255e-08</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>2.520182677194679e-08</v>
+        <v>2.525164996495255e-08</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>2.540218712356138e-08</v>
+        <v>2.544543030201776e-08</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>2.561077691449515e-08</v>
+        <v>2.564838179502966e-08</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>2.582891467600219e-08</v>
+        <v>2.586178211108029e-08</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>2.605791893933597e-08</v>
+        <v>2.608690891726115e-08</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>2.629910823575001e-08</v>
+        <v>2.632503988066372e-08</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>2.655380109649839e-08</v>
+        <v>2.65774526683801e-08</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>2.682331605283463e-08</v>
+        <v>2.684542494750175e-08</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>2.710897163601214e-08</v>
+        <v>2.713023438512009e-08</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>2.741208637728512e-08</v>
+        <v>2.743315864832732e-08</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>2.773397880790672e-08</v>
+        <v>2.775547540421456e-08</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>2.807596745913122e-08</v>
+        <v>2.809846231987409e-08</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>2.843937086221202e-08</v>
+        <v>2.846339706239728e-08</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>2.882550754840247e-08</v>
+        <v>2.885155729887547e-08</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>2.923569604895694e-08</v>
+        <v>2.926422069640104e-08</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>2.967125489512879e-08</v>
+        <v>2.970266492206531e-08</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>3.01335026181713e-08</v>
+        <v>3.016816764295956e-08</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>3.062375774933896e-08</v>
+        <v>3.066200652617627e-08</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>3.11433388198851e-08</v>
+        <v>3.118545923880674e-08</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>3.169356436106289e-08</v>
+        <v>3.173980344794213e-08</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>3.2275752904127e-08</v>
+        <v>3.232631682067513e-08</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>3.289122298033008e-08</v>
+        <v>3.294627702409634e-08</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>3.354129312092692e-08</v>
+        <v>3.360096172529856e-08</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>3.422728185717069e-08</v>
+        <v>3.429164859137293e-08</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>3.495050772031441e-08</v>
+        <v>3.501961528941047e-08</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>3.571228924161307e-08</v>
+        <v>3.578613948650414e-08</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>3.651394495231974e-08</v>
+        <v>3.659249884974502e-08</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>3.735679338368732e-08</v>
+        <v>3.743997104622398e-08</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>3.824215306697102e-08</v>
+        <v>3.832983374303423e-08</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>3.917134253342381e-08</v>
+        <v>3.926336460726671e-08</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>4.014568031429848e-08</v>
+        <v>4.02418413060122e-08</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>4.116648494085046e-08</v>
+        <v>4.126654150636415e-08</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>4.223507494433161e-08</v>
+        <v>4.233874287541236e-08</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>4.335276885599756e-08</v>
+        <v>4.345972308025048e-08</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>4.452367522072511e-08</v>
+        <v>4.463355294647699e-08</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>4.57650855529157e-08</v>
+        <v>4.587750112896549e-08</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>4.709818128196742e-08</v>
+        <v>4.721273058227102e-08</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>4.85441444010951e-08</v>
+        <v>4.866040482540088e-08</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>5.012415690350846e-08</v>
+        <v>5.024168737735728e-08</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>5.185940078242281e-08</v>
+        <v>5.197774175714798e-08</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>5.377105803104916e-08</v>
+        <v>5.388973148377647e-08</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>5.588031064259794e-08</v>
+        <v>5.599882007624565e-08</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>5.820834061028536e-08</v>
+        <v>5.832617105356422e-08</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>6.077632992732203e-08</v>
+        <v>6.089294793473526e-08</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>6.360546058691769e-08</v>
+        <v>6.372031423876098e-08</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>6.671467960655304e-08</v>
+        <v>6.68271987197307e-08</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>7.008301191926992e-08</v>
+        <v>7.019261181298221e-08</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>7.365505730619671e-08</v>
+        <v>7.376114204912389e-08</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>7.737428752814011e-08</v>
+        <v>7.747625004484414e-08</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>8.118417434589397e-08</v>
+        <v>8.128139641681834e-08</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>8.502818952026545e-08</v>
+        <v>8.512004178173532e-08</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>8.884980481205154e-08</v>
+        <v>8.893564675627365e-08</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>9.259249198204925e-08</v>
+        <v>9.267167195711197e-08</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>9.619972279106571e-08</v>
+        <v>9.627157800093898e-08</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>9.961496899989783e-08</v>
+        <v>9.967882550443326e-08</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>1.027817023693432e-07</v>
+        <v>1.02836875084274e-07</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>1.05643394660208e-07</v>
+        <v>1.056891873571489e-07</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>1.081435176332895e-07</v>
+        <v>1.081792229397369e-07</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>1.102255430493864e-07</v>
+        <v>1.102504424487184e-07</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>1.118329426693028e-07</v>
+        <v>1.118463065007789e-07</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>1.129398812237077e-07</v>
+        <v>1.129410634917627e-07</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>1.136621293810779e-07</v>
+        <v>1.136510051701097e-07</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>1.141562684566285e-07</v>
+        <v>1.141333599933701e-07</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>1.145788835749222e-07</v>
+        <v>1.145453602402086e-07</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>1.150865598605224e-07</v>
+        <v>1.150442381892907e-07</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>1.158358824379919e-07</v>
+        <v>1.157872261192813e-07</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>1.169834364318924e-07</v>
+        <v>1.169315563088441e-07</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>1.186858069667889e-07</v>
+        <v>1.186344610366459e-07</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>1.210994535840103e-07</v>
+        <v>1.210530463407402e-07</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>1.243419332932524e-07</v>
+        <v>1.243053120884387e-07</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>1.284370220108591e-07</v>
+        <v>1.284149861473918e-07</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>1.333946482588342e-07</v>
+        <v>1.333918765053692e-07</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>1.392247405591779e-07</v>
+        <v>1.392457911501373e-07</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>1.459372274339071e-07</v>
+        <v>1.459865380694787e-07</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>1.53542037405023e-07</v>
+        <v>1.536239252511606e-07</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>1.620490989945236e-07</v>
+        <v>1.621677606829472e-07</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>1.714683407244305e-07</v>
+        <v>1.716278523526259e-07</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>1.81798806624351e-07</v>
+        <v>1.820029925103009e-07</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>1.929067222870722e-07</v>
+        <v>1.931575534438141e-07</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>2.045695414125515e-07</v>
+        <v>2.048660651362058e-07</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>2.165630933014728e-07</v>
+        <v>2.169014135842276e-07</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>2.286632072545527e-07</v>
+        <v>2.290364847846636e-07</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>2.406457125724755e-07</v>
+        <v>2.410441647342656e-07</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>2.522864385559256e-07</v>
+        <v>2.526973394297859e-07</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>2.633612145056191e-07</v>
+        <v>2.63768894868008e-07</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>2.736458697222402e-07</v>
+        <v>2.740317170456837e-07</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>2.829186193198406e-07</v>
+        <v>2.832615715584699e-07</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>2.909916433084553e-07</v>
+        <v>2.912752185234821e-07</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>2.97702408561606e-07</v>
+        <v>2.979199384771738e-07</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>3.028889846598154e-07</v>
+        <v>3.03043739403682e-07</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>3.063894411835873e-07</v>
+        <v>3.064946292871246e-07</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>3.080418477134315e-07</v>
+        <v>3.081206161116257e-07</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>3.076843091852179e-07</v>
+        <v>3.077697395341107e-07</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>3.052122947454218e-07</v>
+        <v>3.053414284558236e-07</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>3.006952898616188e-07</v>
+        <v>3.00891002831787e-07</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>2.94235653404912e-07</v>
+        <v>2.945032319783516e-07</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>2.859357442574265e-07</v>
+        <v>2.862628852242737e-07</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>2.759277839050043e-07</v>
+        <v>2.762883494396369e-07</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>2.644608840856979e-07</v>
+        <v>2.648295995811423e-07</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>2.518127527196236e-07</v>
+        <v>2.521688024847157e-07</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>2.382610977268551e-07</v>
+        <v>2.385881249862401e-07</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>2.240836270274993e-07</v>
+        <v>2.243697339216321e-07</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>2.095580485416529e-07</v>
+        <v>2.097957961267979e-07</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>1.949620701894251e-07</v>
+        <v>1.95148478437656e-07</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>1.805733998908859e-07</v>
+        <v>1.807099476900861e-07</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>1.666697455661569e-07</v>
+        <v>1.667623707200193e-07</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>1.534961126749689e-07</v>
+        <v>1.535545610218012e-07</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>1.411092024276256e-07</v>
+        <v>1.411432799971136e-07</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>1.294984547803457e-07</v>
+        <v>1.295166890843259e-07</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>1.186532257446713e-07</v>
+        <v>1.186628641063706e-07</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>1.085628713321765e-07</v>
+        <v>1.085698808862117e-07</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>9.921674755443257e-08</v>
+        <v>9.922581524681053e-08</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>9.060421042298574e-08</v>
+        <v>9.061874301110352e-08</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>8.2714615949408e-08</v>
+        <v>8.273674000205268e-08</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>7.553726968755141e-08</v>
+        <v>7.556783589070553e-08</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>6.905658486147971e-08</v>
+        <v>6.909558550490493e-08</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>6.324806427317e-08</v>
+        <v>6.329539362059058e-08</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>5.808626492778084e-08</v>
+        <v>5.814179992638039e-08</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>5.354574383048672e-08</v>
+        <v>5.360934411090819e-08</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>4.96010579864599e-08</v>
+        <v>4.967256586280554e-08</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>4.622676440086228e-08</v>
+        <v>4.630600487069371e-08</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>4.339742007886665e-08</v>
+        <v>4.348420082320482e-08</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>4.108758202564384e-08</v>
+        <v>4.118169340896901e-08</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>3.927040154852975e-08</v>
+        <v>3.937160030491025e-08</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>3.788569993325695e-08</v>
+        <v>3.799332235371314e-08</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>3.683940382802742e-08</v>
+        <v>3.69519723952274e-08</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>3.603592125003843e-08</v>
+        <v>3.615112701377731e-08</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>3.537966021649076e-08</v>
+        <v>3.549436279369055e-08</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>3.47750287445824e-08</v>
+        <v>3.488525631929207e-08</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>3.412643485151313e-08</v>
+        <v>3.422738417490859e-08</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>3.333828655448284e-08</v>
+        <v>3.342432294486695e-08</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>3.231499187068934e-08</v>
+        <v>3.237964921349188e-08</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>3.10200572659205e-08</v>
+        <v>3.105769186108647e-08</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>2.967224782847748e-08</v>
+        <v>2.968518170499156e-08</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>2.855922988636431e-08</v>
+        <v>2.855967897698396e-08</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>2.796338199379103e-08</v>
+        <v>2.797318680590976e-08</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>2.782570311367723e-08</v>
+        <v>2.785894237800078e-08</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>2.763039290243439e-08</v>
+        <v>2.767059838776176e-08</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>2.736761134704541e-08</v>
+        <v>2.739660396792402e-08</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>2.724594970909163e-08</v>
+        <v>2.725617277653835e-08</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>2.747452741808354e-08</v>
+        <v>2.74690764614474e-08</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>2.82520713765113e-08</v>
+        <v>2.824432234297029e-08</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>2.953720258719543e-08</v>
+        <v>2.954222187185305e-08</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>3.1047835856862e-08</v>
+        <v>3.107376885678575e-08</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>3.249137340569177e-08</v>
+        <v>3.253906842418989e-08</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>3.357521745387049e-08</v>
+        <v>3.363822570049198e-08</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>3.400692735208626e-08</v>
+        <v>3.407150665685898e-08</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>3.365737321562642e-08</v>
+        <v>3.37063483556268e-08</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>3.286956501139525e-08</v>
+        <v>3.289348811415642e-08</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>3.207133660281372e-08</v>
+        <v>3.207049220669173e-08</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>3.167135799797146e-08</v>
+        <v>3.165536998839622e-08</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>3.171874638442904e-08</v>
+        <v>3.169920332021879e-08</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>3.194312102536119e-08</v>
+        <v>3.192702301828783e-08</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>3.206298335652322e-08</v>
+        <v>3.205251403708584e-08</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>3.185255914335892e-08</v>
+        <v>3.184610612467963e-08</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>3.132196543891784e-08</v>
+        <v>3.131844012720313e-08</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>3.054372776997942e-08</v>
+        <v>3.054370823325618e-08</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>2.959037206058406e-08</v>
+        <v>2.959610303597446e-08</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>2.85344242347728e-08</v>
+        <v>2.854981712849428e-08</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>2.744840728690582e-08</v>
+        <v>2.747903980498828e-08</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>2.639433973007977e-08</v>
+        <v>2.644613179927721e-08</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>2.540013338077877e-08</v>
+        <v>2.547504803444756e-08</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>2.44867899533238e-08</v>
+        <v>2.458196232013372e-08</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>2.367531116203858e-08</v>
+        <v>2.378304846597274e-08</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>2.298669872124645e-08</v>
+        <v>2.309448028160135e-08</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>2.244195434526896e-08</v>
+        <v>2.253243157665443e-08</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>2.206207881489738e-08</v>
+        <v>2.211307552443153e-08</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>2.182454481251295e-08</v>
+        <v>2.182291033812413e-08</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>2.160596797928173e-08</v>
+        <v>2.157806070506025e-08</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>2.139525860906567e-08</v>
+        <v>2.136712820712066e-08</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>2.12042843685819e-08</v>
+        <v>2.119373683188669e-08</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>2.104491292454705e-08</v>
+        <v>2.106151056693925e-08</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>2.092901194367838e-08</v>
+        <v>2.097407339985977e-08</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>2.086571119224033e-08</v>
+        <v>2.093356639159897e-08</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>2.085115948802188e-08</v>
+        <v>2.093509974332425e-08</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>2.087766244392128e-08</v>
+        <v>2.097170206449517e-08</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>2.093752508286741e-08</v>
+        <v>2.103640164502676e-08</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>2.102305242778907e-08</v>
+        <v>2.112222677483398e-08</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>2.112654950161501e-08</v>
+        <v>2.12222057438317e-08</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>2.124032132727423e-08</v>
+        <v>2.132936684193506e-08</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>2.135667292769548e-08</v>
+        <v>2.143673835905896e-08</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>2.146790932580749e-08</v>
+        <v>2.153734858511826e-08</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>2.156633554453929e-08</v>
+        <v>2.162422581002814e-08</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>2.164425660681955e-08</v>
+        <v>2.16903983237034e-08</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>2.169399353887526e-08</v>
+        <v>2.172890929334472e-08</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>2.17109425849754e-08</v>
+        <v>2.173566072793104e-08</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>2.169721148518053e-08</v>
+        <v>2.171279390282888e-08</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>2.165579332890026e-08</v>
+        <v>2.166327314844442e-08</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>2.158968120554427e-08</v>
+        <v>2.159006279518387e-08</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>2.15018682045223e-08</v>
+        <v>2.149612717345353e-08</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>2.139534741524386e-08</v>
+        <v>2.138443061365944e-08</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>2.127311192711867e-08</v>
+        <v>2.125793744620788e-08</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>2.113815482955652e-08</v>
+        <v>2.11196120015052e-08</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>2.099346921196682e-08</v>
+        <v>2.097241860995734e-08</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>2.08420481637595e-08</v>
+        <v>2.081932160197078e-08</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>2.068688477434394e-08</v>
+        <v>2.066328530795145e-08</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>2.053097213312993e-08</v>
+        <v>2.05072740583057e-08</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>2.037730332952727e-08</v>
+        <v>2.035425218343986e-08</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>2.022887145294534e-08</v>
+        <v>2.020718401375986e-08</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>2.008866959279393e-08</v>
+        <v>2.006903387967206e-08</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>1.995969083848283e-08</v>
+        <v>1.994276611158278e-08</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>1.984492827942146e-08</v>
+        <v>1.983134503989799e-08</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>1.974737500501959e-08</v>
+        <v>1.973773499502401e-08</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>1.966988477899711e-08</v>
+        <v>1.966473172937867e-08</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>1.961466873663927e-08</v>
+        <v>1.961435344309253e-08</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>1.958375285656342e-08</v>
+        <v>1.958839430482952e-08</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>1.957916310019443e-08</v>
+        <v>1.958864846245149e-08</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>1.960292542895723e-08</v>
+        <v>1.961691006382032e-08</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>1.965706580427672e-08</v>
+        <v>1.967497325679789e-08</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>1.974361018757772e-08</v>
+        <v>1.976463218924595e-08</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>1.986458454028529e-08</v>
+        <v>1.988768100902655e-08</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>2.00220148238241e-08</v>
+        <v>2.004591386400132e-08</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>2.021792699961934e-08</v>
+        <v>2.024112490203241e-08</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>2.04543470290958e-08</v>
+        <v>2.047510827098156e-08</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>2.07333008736781e-08</v>
+        <v>2.074965811871037e-08</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>2.105681449479166e-08</v>
+        <v>2.10665685930812e-08</v>
       </c>
     </row>
   </sheetData>
